--- a/data/Characters.xlsx
+++ b/data/Characters.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/1.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/1.png</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/2.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/2.png</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/3.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/3.png</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/4.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/4.png</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/5.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/5.png</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/6.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/6.png</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/7.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/7.png</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/8.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/8.png</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/9.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/9.png</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/10.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/10.png</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/11.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/11.png</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/12.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/12.png</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/13.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/13.png</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/14.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/14.png</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/15.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/15.png</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/16.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/16.png</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/17.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/17.png</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/18.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/18.png</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/19.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/19.png</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/20.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/20.png</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/21.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/21.png</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/22.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/22.png</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/23.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/23.png</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/24.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/24.png</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/25.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/25.png</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/26.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/26.png</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/27.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/27.png</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/28.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/28.png</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/29.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/29.png</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/30.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/30.png</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/31.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/31.png</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/32.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/32.png</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/33.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/33.png</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/34.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/34.png</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/35.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/35.png</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/36.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/36.png</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/37.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/37.png</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/38.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/38.png</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/39.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/39.png</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/40.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/40.png</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/41.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/41.png</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/42.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/42.png</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/43.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/43.png</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/44.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/44.png</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/45.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/45.png</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/46.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/46.png</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/47.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/47.png</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/48.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/48.png</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/49.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/49.png</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/50.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/50.png</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/51.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/51.png</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/52.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/52.png</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/53.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/53.png</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/54.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/54.png</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/55.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/55.png</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/56.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/56.png</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/57.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/57.png</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/58.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/58.png</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/59.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/59.png</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/60.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/60.png</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/61.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/61.png</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/62.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/62.png</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/63.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/63.png</t>
         </is>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/64.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/64.png</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/65.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/65.png</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/66.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/66.png</t>
         </is>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/67.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/67.png</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/68.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/68.png</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/69.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/69.png</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/70.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/70.png</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/71.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/71.png</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/72.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/72.png</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/73.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/73.png</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/74.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/74.png</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/75.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/75.png</t>
         </is>
       </c>
     </row>
@@ -3112,7 +3112,7 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/76.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/76.png</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/77.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/77.png</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/78.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/78.png</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/79.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/79.png</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/80.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/80.png</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/81.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/81.png</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/82.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/82.png</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/83.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/83.png</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/84.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/84.png</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/85.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/85.png</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/86.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/86.png</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/87.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/87.png</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/88.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/88.png</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/89.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/89.png</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/90.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/90.png</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/91.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/91.png</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/92.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/92.png</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/93.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/93.png</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/94.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/94.png</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/95.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/95.png</t>
         </is>
       </c>
     </row>
@@ -3724,7 +3724,7 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/96.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/96.png</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/97.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/97.png</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/98.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/98.png</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/99.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/99.png</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/100.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/100.png</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/101.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/101.png</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/102.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/102.png</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/103.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/103.png</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/104.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/104.png</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/105.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/105.png</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/106.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/106.png</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/107.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/107.png</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/108.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/108.png</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/109.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/109.png</t>
         </is>
       </c>
     </row>
@@ -4158,7 +4158,7 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/110.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/110.png</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/111.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/111.png</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/112.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/112.png</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/113.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/113.png</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/114.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/114.png</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/115.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/115.png</t>
         </is>
       </c>
     </row>
@@ -4348,7 +4348,7 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/116.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/116.png</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/117.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/117.png</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/118.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/118.png</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4455,7 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/119.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/119.png</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/120.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/120.png</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/121.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/121.png</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/122.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/122.png</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/123.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/123.png</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4608,7 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/124.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/124.png</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/125.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/125.png</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/126.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/126.png</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/127.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/127.png</t>
         </is>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/128.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/128.png</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/129.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/129.png</t>
         </is>
       </c>
     </row>
@@ -4742,7 +4742,7 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/130.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/130.png</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/131.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/131.png</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/132.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/132.png</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/133.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/133.png</t>
         </is>
       </c>
     </row>
@@ -4826,7 +4826,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/134.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/134.png</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/135.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/135.png</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4868,7 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/136.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/136.png</t>
         </is>
       </c>
     </row>
@@ -4889,7 +4889,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/137.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/137.png</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/138.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/138.png</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/139.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/139.png</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/140.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/140.png</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/141.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/141.png</t>
         </is>
       </c>
     </row>
@@ -4994,7 +4994,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/142.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/142.png</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/143.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/143.png</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/144.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/144.png</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/145.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/145.png</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/146.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/146.png</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/147.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/147.png</t>
         </is>
       </c>
     </row>
@@ -5120,7 +5120,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/148.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/148.png</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/149.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/149.png</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/150.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/150.png</t>
         </is>
       </c>
     </row>
@@ -5183,7 +5183,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/151.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/151.png</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/152.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/152.png</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/153.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/153.png</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/154.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/154.png</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/155.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/155.png</t>
         </is>
       </c>
     </row>
@@ -5288,7 +5288,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/156.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/156.png</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/157.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/157.png</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/158.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/158.png</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/159.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/159.png</t>
         </is>
       </c>
     </row>
@@ -5372,7 +5372,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/160.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/160.png</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/161.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/161.png</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/162.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/162.png</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/163.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/163.png</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/164.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/164.png</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/165.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/165.png</t>
         </is>
       </c>
     </row>
@@ -5498,7 +5498,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/characters/166.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/166.png</t>
         </is>
       </c>
     </row>

--- a/data/Characters.xlsx
+++ b/data/Characters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>Url</t>
         </is>
       </c>
     </row>
@@ -5502,6 +5502,23 @@
         </is>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/characters/0.png</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Characters.xlsx
+++ b/data/Characters.xlsx
@@ -2877,7 +2877,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Beauxbatons Academy of Magic</t>
+          <t>Beauxbatons</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Beauxbatons Academy of Magic</t>
+          <t>Beauxbatons</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
